--- a/data/xlsx/Orcus - Classes.xlsx
+++ b/data/xlsx/Orcus - Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E29A9B-9733-482D-A75F-D5559E21B488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5663926A-42D9-4950-BD9A-6CE46E165946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{190BB917-E992-4FE1-9680-9C1683F26666}"/>
   </bookViews>
@@ -671,9 +671,6 @@
 * **Staff:** Shunt 1.
 * **Wand:** The target makes a save. If they fail, they fall prone. 
 * **Book:** The target makes a save. If they fail, they grant combat advantage (save ends). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have access to psi focus, a heightened state of mental and emotional clarity, that you can utilize to augment powers with the Augmentable keyword. This psi focus, once used, must refresh, much like how certain monsters have powers that refresh at the beginning of their turn on a successful roll. Psi focus works in the exact same way, refreshing on a roll of 5 or 6.  </t>
   </si>
   <si>
     <t xml:space="preserve">You belong to the Commander class (along with any other classes that you belong to), and gain the following benefits:
@@ -900,20 +897,23 @@
     <t>Frontline Fighting, Red in Tooth and Claw, Strong Bidding</t>
   </si>
   <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Priest Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You belong to the Priest class (along with any other classes that you belong to), and gain the following benefits:
+* You can use *infuse with life* once per encounter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have access to psi focus, a heightened state of mental and emotional clarity, that you can utilize to augment powers with the Augmentable tag. This psi focus, once used, must refresh, much like how certain monsters have powers that refresh at the beginning of their turn on a successful roll. Psi focus works in the exact same way, refreshing on a roll of 5 or 6.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">You belong to a particular school of magic. Choose one at character creation. 
-* **Conjurer:** When an encounter ends and you have one or more daily powers with the Summon keyword still active, those daily powers are not expended. However, if you use them again, the summoned creatures appear in the exact state they were when their last summoning ended (current HP, conditions, etc.) except that they can use their encounter powers again even if already used before. If you complete a long rest, all your daily powers reset and if you use them from then on a “fresh” creature will be summoned. Your secondary ability is Constitution.
+* **Conjurer:** When an encounter ends and you have one or more daily powers with the Summons tag still active, those daily powers are not expended. However, if you use them again, the summoned creatures appear in the exact state they were when their last summoning ended (current HP, conditions, etc.) except that they can use their encounter powers again even if already used before. If you complete a long rest, all your daily powers reset and if you use them from then on a “fresh” creature will be summoned. Your secondary ability is Constitution.
 * **Enchanter:** When you use a power with the Psychic tag that does damage on a hit, you can choose for the power to do no damage to any enemies you target. If so, you gain a +2 bonus on the attack roll. Your secondary ability is Charisma. 
 * **Evoker:** If you wish, a near or far power you use with the Acid, Cold, Fire, Flux, Lightning or Thunder tags has its area increased by 1 (from Near arc 2 to Near arc 3, for example). Also, you can change your flux energy as a swift action (see the Elemental Flux discipline for a description of flux energy). Your secondary ability is Dexterity. </t>
-  </si>
-  <si>
-    <t>Priest</t>
-  </si>
-  <si>
-    <t>Priest Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You belong to the Priest class (along with any other classes that you belong to), and gain the following benefits:
-* You can use *infuse with life* once per encounter. </t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1284,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI4" sqref="AI4"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1601,7 @@
         <v>88</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE3" t="s">
         <v>75</v>
@@ -1610,13 +1610,13 @@
         <v>182</v>
       </c>
       <c r="AG3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AH3" s="3" t="s">
         <v>170</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ3" t="s">
         <v>165</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="4" spans="1:38" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R4" t="s">
         <v>65</v>
@@ -1685,10 +1685,10 @@
         <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V4" t="s">
         <v>67</v>
@@ -1710,13 +1710,13 @@
         <v>183</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AJ4" t="s">
         <v>171</v>
@@ -1766,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R5" t="s">
         <v>94</v>
@@ -1787,7 +1787,7 @@
         <v>97</v>
       </c>
       <c r="W5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE5" t="s">
         <v>98</v>
@@ -1796,13 +1796,13 @@
         <v>180</v>
       </c>
       <c r="AG5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ5" t="s">
         <v>177</v>
@@ -1877,13 +1877,13 @@
         <v>83</v>
       </c>
       <c r="AG6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1948,10 +1948,10 @@
         <v>195</v>
       </c>
       <c r="AG7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH7" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="AI7" s="3" t="s">
         <v>197</v>
@@ -2016,7 +2016,7 @@
         <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V8" t="s">
         <v>55</v>
@@ -2031,10 +2031,10 @@
         <v>56</v>
       </c>
       <c r="AG8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>186</v>
@@ -2096,13 +2096,13 @@
         <v>193</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T9" t="s">
         <v>43</v>
@@ -2114,19 +2114,19 @@
         <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AI9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="AJ9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK9" t="s">
         <v>175</v>
@@ -2185,7 +2185,7 @@
         <v>107</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T10" t="s">
         <v>67</v>
@@ -2200,19 +2200,19 @@
         <v>200</v>
       </c>
       <c r="AG10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK10" t="s">
         <v>205</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>206</v>
       </c>
       <c r="AL10">
         <v>25</v>
@@ -2265,7 +2265,7 @@
         <v>114</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R11" t="s">
         <v>115</v>
@@ -2277,22 +2277,22 @@
         <v>116</v>
       </c>
       <c r="AF11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI11" s="3" t="s">
         <v>117</v>
       </c>
       <c r="AJ11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK11" t="s">
         <v>236</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>237</v>
       </c>
       <c r="AL11">
         <v>25</v>
@@ -2357,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE12" t="s">
         <v>75</v>
@@ -2463,13 +2463,13 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V14" t="s">
         <v>147</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="X14" t="s">
         <v>148</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
         <v>78</v>
@@ -2672,40 +2672,40 @@
         <v>4</v>
       </c>
       <c r="P18" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>213</v>
+      </c>
+      <c r="R18" t="s">
         <v>209</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T18" t="s">
+        <v>211</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="V18" t="s">
+        <v>215</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="X18" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="R18" t="s">
-        <v>210</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="T18" t="s">
-        <v>212</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="V18" t="s">
-        <v>216</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="X18" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="Z18" t="s">
         <v>33</v>
       </c>
       <c r="AA18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
